--- a/contents/battle_3/battle_3.xlsx
+++ b/contents/battle_3/battle_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\InteractiveBook\contents\battle_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64E8ABD-CA71-4FEB-9051-43F9E01645DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B609D94-F441-4D8D-991F-B442AF0AB0E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="49">
   <si>
     <t>x</t>
   </si>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +620,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -644,7 +644,7 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>8.35</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>8.65</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1879,7 +1879,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,7 +1954,9 @@
       <c r="B4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
       <c r="D4" s="4">
         <v>0</v>
       </c>
@@ -2113,10 +2115,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE17DB7-E6BE-4178-A86C-3E370AE7D84E}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3210,7 +3212,7 @@
         <v>1</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3245,7 +3247,7 @@
         <v>1</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3255,17 +3257,17 @@
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>40</v>
+      <c r="C33" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3280,7 +3282,7 @@
         <v>1</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3290,17 +3292,17 @@
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>40</v>
+      <c r="C34" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3315,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3347,7 +3349,7 @@
         <v>30</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -3382,7 +3384,7 @@
         <v>31</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -3395,29 +3397,29 @@
       <c r="B37">
         <v>1</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>38</v>
+      <c r="C37" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>4</v>
-      </c>
-      <c r="I37" s="2">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="I37" s="1">
+        <v>32</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -3430,29 +3432,29 @@
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>38</v>
+      <c r="C38" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>4</v>
-      </c>
-      <c r="I38" s="2">
-        <v>39</v>
+        <v>5</v>
+      </c>
+      <c r="I38" s="1">
+        <v>33</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K38">
         <v>3</v>
@@ -3484,13 +3486,13 @@
         <v>4</v>
       </c>
       <c r="I39" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3519,13 +3521,13 @@
         <v>4</v>
       </c>
       <c r="I40" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3535,32 +3537,32 @@
       <c r="B41">
         <v>1</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41" s="2">
         <v>41</v>
       </c>
-      <c r="D41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41">
-        <v>2</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>5</v>
-      </c>
-      <c r="I41" s="5">
-        <v>44</v>
-      </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3570,32 +3572,32 @@
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>41</v>
+      <c r="C42" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>5</v>
-      </c>
-      <c r="I42" s="5">
-        <v>45</v>
+        <v>4</v>
+      </c>
+      <c r="I42" s="2">
+        <v>42</v>
       </c>
       <c r="J42">
         <v>1</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3624,13 +3626,13 @@
         <v>5</v>
       </c>
       <c r="I43" s="5">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3659,13 +3661,13 @@
         <v>5</v>
       </c>
       <c r="I44" s="5">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3694,13 +3696,13 @@
         <v>5</v>
       </c>
       <c r="I45" s="5">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3729,13 +3731,13 @@
         <v>5</v>
       </c>
       <c r="I46" s="5">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3764,13 +3766,13 @@
         <v>5</v>
       </c>
       <c r="I47" s="5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J47">
         <v>1</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3799,13 +3801,13 @@
         <v>5</v>
       </c>
       <c r="I48" s="5">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3834,13 +3836,13 @@
         <v>5</v>
       </c>
       <c r="I49" s="5">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -3869,7 +3871,7 @@
         <v>5</v>
       </c>
       <c r="I50" s="5">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -3904,7 +3906,7 @@
         <v>5</v>
       </c>
       <c r="I51" s="5">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -3939,13 +3941,13 @@
         <v>5</v>
       </c>
       <c r="I52" s="5">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3955,26 +3957,26 @@
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>14</v>
+      <c r="C53" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>12</v>
-      </c>
-      <c r="I53" s="6">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="I53" s="5">
+        <v>54</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -3990,26 +3992,26 @@
       <c r="B54">
         <v>1</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>14</v>
+      <c r="C54" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>12</v>
-      </c>
-      <c r="I54" s="6">
-        <v>57</v>
+        <v>5</v>
+      </c>
+      <c r="I54" s="5">
+        <v>55</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -4044,13 +4046,13 @@
         <v>12</v>
       </c>
       <c r="I55" s="6">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4079,12 +4081,82 @@
         <v>12</v>
       </c>
       <c r="I56" s="6">
+        <v>57</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>12</v>
+      </c>
+      <c r="I57" s="6">
+        <v>58</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>12</v>
+      </c>
+      <c r="I58" s="6">
         <v>59</v>
       </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
         <v>2</v>
       </c>
     </row>

--- a/contents/battle_3/battle_3.xlsx
+++ b/contents/battle_3/battle_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\InteractiveBook\contents\battle_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B609D94-F441-4D8D-991F-B442AF0AB0E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71EC2C6-7748-47C9-ADF3-9817B0E6EBAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="53">
   <si>
     <t>x</t>
   </si>
@@ -173,7 +173,19 @@
     <t>towers,patio</t>
   </si>
   <si>
-    <t>towers,keep_roof,outside,patio</t>
+    <t>front_side</t>
+  </si>
+  <si>
+    <t>towers,keep_roof</t>
+  </si>
+  <si>
+    <t>outside,patio</t>
+  </si>
+  <si>
+    <t>front_towers</t>
+  </si>
+  <si>
+    <t>back_towers</t>
   </si>
 </sst>
 </file>
@@ -198,7 +210,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,6 +271,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -272,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -285,7 +309,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,7 +1257,9 @@
       <c r="E27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="H27">
         <v>7</v>
       </c>
@@ -1304,7 +1335,9 @@
       <c r="E30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="7"/>
+      <c r="F30" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="H30">
         <v>7</v>
       </c>
@@ -1328,7 +1361,9 @@
       <c r="E31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F31" s="7"/>
+      <c r="F31" s="17" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -1346,7 +1381,9 @@
       <c r="E32" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="17" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -1364,7 +1401,9 @@
       <c r="E33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="7"/>
+      <c r="F33" s="17" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -1382,7 +1421,9 @@
       <c r="E34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="17" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1400,7 +1441,9 @@
       <c r="E35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="7"/>
+      <c r="F35" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -1464,7 +1507,9 @@
       <c r="E38" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="7"/>
+      <c r="F38" s="12" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
@@ -1876,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76CDC32-9C71-4924-88B2-6E23C700FAA0}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,10 +1953,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="4">
@@ -1929,181 +1974,261 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
         <v>0</v>
       </c>
     </row>
@@ -2117,8 +2242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE17DB7-E6BE-4178-A86C-3E370AE7D84E}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2592,17 +2717,17 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>13</v>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -2767,17 +2892,17 @@
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>13</v>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <v>1</v>

--- a/contents/battle_3/battle_3.xlsx
+++ b/contents/battle_3/battle_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\InteractiveBook\contents\battle_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71EC2C6-7748-47C9-ADF3-9817B0E6EBAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AA0EF7-0F9E-46A6-9EA6-C823DFF47CD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="53">
   <si>
     <t>x</t>
   </si>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,10 +1921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76CDC32-9C71-4924-88B2-6E23C700FAA0}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,243 +1993,283 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B14" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C14" s="4">
         <v>-1</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D14" s="4">
         <v>-1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E14" s="4">
         <v>-1</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F14" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C15" s="4">
         <v>-1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D15" s="4">
         <v>-1</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E15" s="4">
         <v>-1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F15" s="4">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B16" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
+      <c r="C17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -2243,7 +2283,7 @@
   <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4247,7 +4287,7 @@
         <v>1</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4282,7 +4322,7 @@
         <v>1</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/contents/battle_3/battle_3.xlsx
+++ b/contents/battle_3/battle_3.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\InteractiveBook\contents\battle_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AA0EF7-0F9E-46A6-9EA6-C823DFF47CD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2F5EC1-B9EC-4929-A8DD-ACC7A169B9A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
     <sheet name="interactions" sheetId="11" r:id="rId2"/>
     <sheet name="units" sheetId="2" r:id="rId3"/>
+    <sheet name="parameters" sheetId="13" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="63">
   <si>
     <t>x</t>
   </si>
@@ -186,6 +187,36 @@
   </si>
   <si>
     <t>back_towers</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>melee_distance</t>
+  </si>
+  <si>
+    <t>melee_height_difference_threshold</t>
+  </si>
+  <si>
+    <t>archer_distance</t>
+  </si>
+  <si>
+    <t>archer_distance_height_gain</t>
+  </si>
+  <si>
+    <t>siege_distance</t>
+  </si>
+  <si>
+    <t>siege_distance_height_gain</t>
+  </si>
+  <si>
+    <t>flier_distance</t>
+  </si>
+  <si>
+    <t>flier_distance_height_gain</t>
   </si>
 </sst>
 </file>
@@ -2282,7 +2313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE17DB7-E6BE-4178-A86C-3E370AE7D84E}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
@@ -4328,4 +4359,95 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513E7D79-8DA6-4388-A1FE-987DF4589226}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/contents/battle_3/battle_3.xlsx
+++ b/contents/battle_3/battle_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imanol-KS53\Documents\Imanol\Github_projects\InteractiveBook\contents\battle_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2F5EC1-B9EC-4929-A8DD-ACC7A169B9A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F116BA5A-5BC7-4EA0-A841-A902E69ACA06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="66">
   <si>
     <t>x</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>flier_distance_height_gain</t>
+  </si>
+  <si>
+    <t>cavalry_distance</t>
+  </si>
+  <si>
+    <t>cavalry_height_difference_threshold</t>
+  </si>
+  <si>
+    <t>cavalry</t>
   </si>
 </sst>
 </file>
@@ -327,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -346,6 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1952,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76CDC32-9C71-4924-88B2-6E23C700FAA0}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,7 +1973,7 @@
     <col min="1" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1980,326 +1990,377 @@
         <v>29</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="18">
         <v>-1</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="18">
         <v>-1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="18">
         <v>-1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="18">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="18">
         <v>-1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="18">
         <v>-1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="18">
         <v>-1</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="18">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="18">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="18">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="18">
+        <v>0</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="18">
+        <v>0</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="18">
         <v>-1</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="18">
         <v>-1</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="18">
         <v>-1</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="18">
         <v>-1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="18">
         <v>-1</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="18">
         <v>-1</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="18">
         <v>-1</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="18">
         <v>-1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="18">
         <v>-1</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="18">
         <v>-1</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="18">
         <v>-1</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="18">
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="18">
         <v>-1</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="18">
         <v>-1</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="18">
         <v>-1</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="18">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="18">
         <v>-1</v>
       </c>
     </row>
@@ -4363,10 +4424,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513E7D79-8DA6-4388-A1FE-987DF4589226}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4433,17 +4494,33 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>62</v>
       </c>
-      <c r="B9">
+      <c r="B11">
         <v>0.5</v>
       </c>
     </row>
